--- a/write/tables/tb_model_accept_icu_recommend_sims100.xlsx
+++ b/write/tables/tb_model_accept_icu_recommend_sims100.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/aor/academic/paper-spotepi/src/write/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20460"/>
   </bookViews>
   <sheets>
-    <sheet name="model_details" r:id="rId3" sheetId="1"/>
-    <sheet name="raw" r:id="rId4" sheetId="2"/>
-    <sheet name="results" r:id="rId5" sheetId="3"/>
-    <sheet name="boot" r:id="rId6" sheetId="4"/>
+    <sheet name="formatted" sheetId="5" r:id="rId1"/>
+    <sheet name="model_details" sheetId="1" r:id="rId2"/>
+    <sheet name="raw" sheetId="2" r:id="rId3"/>
+    <sheet name="results" sheetId="3" r:id="rId4"/>
+    <sheet name="boot" sheetId="4" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="285">
   <si>
     <t>V1</t>
   </si>
@@ -786,22 +799,129 @@
   </si>
   <si>
     <t>156.694003029492</t>
+  </si>
+  <si>
+    <t>Odds ratio (95% CI)</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Age category (years)</t>
+  </si>
+  <si>
+    <t>18-39</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>40-59</t>
+  </si>
+  <si>
+    <t>60-79</t>
+  </si>
+  <si>
+    <t>80+</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Sepsis diagnosis</t>
+  </si>
+  <si>
+    <t>Not septic</t>
+  </si>
+  <si>
+    <t>Unspecified sepsis</t>
+  </si>
+  <si>
+    <t>Genito-urinary sepsis</t>
+  </si>
+  <si>
+    <t>Abdominal sepsis</t>
+  </si>
+  <si>
+    <t>Chest sepsis</t>
+  </si>
+  <si>
+    <t>Pre-existing organ support</t>
+  </si>
+  <si>
+    <t>ICNARC physiology score</t>
+  </si>
+  <si>
+    <t>Reported to be peri-arrest</t>
+  </si>
+  <si>
+    <t>Assessment timing</t>
+  </si>
+  <si>
+    <t>Out-of-hours (7pm-7am)</t>
+  </si>
+  <si>
+    <t>Saturday/Sunday</t>
+  </si>
+  <si>
+    <t>Winter (Dec-Mar)</t>
+  </si>
+  <si>
+    <t>Critical care availability</t>
+  </si>
+  <si>
+    <t>Two or more beds</t>
+  </si>
+  <si>
+    <t>One or two beds</t>
+  </si>
+  <si>
+    <t>Zero or fewer beds</t>
+  </si>
+  <si>
+    <t>Hospital level variation</t>
+  </si>
+  <si>
+    <t>Median Odds Ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="4">
@@ -809,18 +929,21 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -828,990 +951,2059 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="true" applyFill="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="XLConnect.Header" xfId="1"/>
-    <cellStyle name="XLConnect.String" xfId="2"/>
-    <cellStyle name="XLConnect.Numeric" xfId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
     <cellStyle name="XLConnect.DateTime" xfId="5"/>
+    <cellStyle name="XLConnect.Header" xfId="1"/>
+    <cellStyle name="XLConnect.Numeric" xfId="3"/>
+    <cellStyle name="XLConnect.String" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.5" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="str">
+        <f>results!A1</f>
+        <v>vars</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>results!B1</f>
+        <v>OR</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>results!C1</f>
+        <v>CI</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>results!D1</f>
+        <v>p</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>results!E1</f>
+        <v>star</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>results!F1</f>
+        <v>L95</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>results!G1</f>
+        <v>U95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="str">
+        <f>results!A2</f>
+        <v>(Intercept)</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>results!B2</f>
+        <v>1.68</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>results!C2</f>
+        <v>(1.07--2.64)</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>results!D2</f>
+        <v>0.025</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>results!E2</f>
+        <v>*</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>results!F2</f>
+        <v>1.07</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>results!G2</f>
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="str">
+        <f>results!A8</f>
+        <v>age_k1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>results!B8</f>
+        <v>0.88</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>results!C8</f>
+        <v>(0.68--1.14)</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>results!D8</f>
+        <v>0.346</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>results!E8</f>
+        <v/>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>results!F8</f>
+        <v>0.68</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f>results!G8</f>
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="str">
+        <f>results!A9</f>
+        <v>age_k2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>results!B9</f>
+        <v>0.80</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>results!C9</f>
+        <v>(0.63--1.02)</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>results!D9</f>
+        <v>0.071</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>results!E9</f>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>results!F9</f>
+        <v>0.63</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f>results!G9</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="str">
+        <f>results!A10</f>
+        <v>age_k3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>results!B10</f>
+        <v>0.64</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>results!C10</f>
+        <v>(0.49--0.84)</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>results!D10</f>
+        <v>0.001</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>results!E10</f>
+        <v>**</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>results!F10</f>
+        <v>0.49</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>results!G10</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="str">
+        <f>results!A11</f>
+        <v>male</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f>results!B11</f>
+        <v>1.07</v>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f>results!C11</f>
+        <v>(0.93--1.23)</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f>results!D11</f>
+        <v>0.320</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>results!E11</f>
+        <v/>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>results!F11</f>
+        <v>0.93</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>results!G11</f>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C12" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C13" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="str">
+        <f>results!A12</f>
+        <v>sepsis_dx1</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="13" t="str">
+        <f>results!B12</f>
+        <v>1.22</v>
+      </c>
+      <c r="E14" s="14" t="str">
+        <f>results!C12</f>
+        <v>(0.97--1.52)</v>
+      </c>
+      <c r="F14" s="13" t="str">
+        <f>results!D12</f>
+        <v>0.091</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>results!E12</f>
+        <v/>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>results!F12</f>
+        <v>0.97</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f>results!G12</f>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="str">
+        <f>results!A13</f>
+        <v>sepsis_dx2</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="13" t="str">
+        <f>results!B13</f>
+        <v>1.13</v>
+      </c>
+      <c r="E15" s="14" t="str">
+        <f>results!C13</f>
+        <v>(0.84--1.52)</v>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f>results!D13</f>
+        <v>0.429</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>results!E13</f>
+        <v/>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>results!F13</f>
+        <v>0.84</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>results!G13</f>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="str">
+        <f>results!A14</f>
+        <v>sepsis_dx3</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f>results!B14</f>
+        <v>1.24</v>
+      </c>
+      <c r="E16" s="14" t="str">
+        <f>results!C14</f>
+        <v>(0.97--1.57)</v>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f>results!D14</f>
+        <v>0.083</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>results!E14</f>
+        <v/>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>results!F14</f>
+        <v>0.97</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f>results!G14</f>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="str">
+        <f>results!A15</f>
+        <v>sepsis_dx4</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f>results!B15</f>
+        <v>0.94</v>
+      </c>
+      <c r="E17" s="14" t="str">
+        <f>results!C15</f>
+        <v>(0.79--1.11)</v>
+      </c>
+      <c r="F17" s="13" t="str">
+        <f>results!D15</f>
+        <v>0.462</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>results!E15</f>
+        <v/>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>results!F15</f>
+        <v>0.79</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f>results!G15</f>
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="str">
+        <f>results!A16</f>
+        <v>osupp2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f>results!B16</f>
+        <v>0.86</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f>results!C16</f>
+        <v>(0.69--1.07)</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f>results!D16</f>
+        <v>0.166</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>results!E16</f>
+        <v/>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>results!F16</f>
+        <v>0.69</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f>results!G16</f>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="str">
+        <f>results!A17</f>
+        <v>icnarc_score</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>results!B17</f>
+        <v>1.04</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>results!C17</f>
+        <v>(1.03--1.05)</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f>results!D17</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>results!E17</f>
+        <v>***</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>results!F17</f>
+        <v>1.03</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f>results!G17</f>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="str">
+        <f>results!A18</f>
+        <v>periarrest</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="18" t="str">
+        <f>results!B18</f>
+        <v>3.15</v>
+      </c>
+      <c r="E20" s="19" t="str">
+        <f>results!C18</f>
+        <v>(2.38--4.16)</v>
+      </c>
+      <c r="F20" s="18" t="str">
+        <f>results!D18</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>results!E18</f>
+        <v>***</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>results!F18</f>
+        <v>2.38</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>results!G18</f>
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C22" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="str">
+        <f>results!A3</f>
+        <v>out_of_hours</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>results!B3</f>
+        <v>1.48</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>results!C3</f>
+        <v>(1.28--1.72)</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f>results!D3</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>results!E3</f>
+        <v>***</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>results!F3</f>
+        <v>1.28</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>results!G3</f>
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="str">
+        <f>results!A4</f>
+        <v>weekend</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f>results!B4</f>
+        <v>1.13</v>
+      </c>
+      <c r="E24" s="11" t="str">
+        <f>results!C4</f>
+        <v>(0.96--1.32)</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f>results!D4</f>
+        <v>0.130</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>results!E4</f>
+        <v/>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>results!F4</f>
+        <v>0.96</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f>results!G4</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="str">
+        <f>results!A5</f>
+        <v>winter</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>results!B5</f>
+        <v>1.14</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>results!C5</f>
+        <v>(0.96--1.35)</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f>results!D5</f>
+        <v>0.138</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>results!E5</f>
+        <v/>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>results!F5</f>
+        <v>0.96</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f>results!G5</f>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C26" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C27" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="str">
+        <f>results!A6</f>
+        <v>room_cmp2[-5, 1)</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f>results!B7</f>
+        <v>0.73</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f>results!C7</f>
+        <v>(0.61--0.87)</v>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f>results!D7</f>
+        <v>0.001</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>results!E6</f>
+        <v>***</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>results!F6</f>
+        <v>0.43</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f>results!G6</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="str">
+        <f>results!A7</f>
+        <v>room_cmp2[ 1, 3)</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="10" t="str">
+        <f>results!B6</f>
+        <v>0.56</v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f>results!C6</f>
+        <v>(0.43--0.73)</v>
+      </c>
+      <c r="F29" s="10" t="str">
+        <f>results!D6</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>results!E7</f>
+        <v>***</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>results!F7</f>
+        <v>0.61</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f>results!G7</f>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C31" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C32" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" s="32">
+        <f>VALUE(boot!B2)</f>
+        <v>3.2242453897249099</v>
+      </c>
+      <c r="E32" s="31" t="str">
+        <f>CONCATENATE("(",ROUND(VALUE(boot!C2),2),"--",ROUND(VALUE(boot!D2),2),")")</f>
+        <v>(2.38--4.02)</v>
+      </c>
+      <c r="F32" s="31"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <mergeCells count="4">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D27:F27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>221</v>
       </c>
@@ -1825,7 +3017,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1839,7 +3031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>225</v>
       </c>
@@ -1853,7 +3045,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -1867,7 +3059,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>227</v>
       </c>
@@ -1881,7 +3073,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>228</v>
       </c>
@@ -1895,7 +3087,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>229</v>
       </c>
@@ -1909,7 +3101,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>230</v>
       </c>
@@ -1923,7 +3115,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>231</v>
       </c>
@@ -1937,7 +3129,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>232</v>
       </c>
@@ -1952,6 +3144,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>